--- a/Definitions/m_Definitions_Servers.xlsx
+++ b/Definitions/m_Definitions_Servers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="964"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="964" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>Topics</t>
   </si>
@@ -217,6 +217,21 @@
   </si>
   <si>
     <t>https://glassfish.java.net/download.html</t>
+  </si>
+  <si>
+    <t>Weblogic</t>
+  </si>
+  <si>
+    <t>Configuring and Managing Coherence Clusters</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/middleware/1212/wls/CLUST/coherence.htm#CLUST629</t>
+  </si>
+  <si>
+    <t>Introduction to Coherence Clusters</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/cd/E18686_01/coh.37/e18677/cluster_overview.htm#COHDG5163</t>
   </si>
 </sst>
 </file>
@@ -692,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -763,9 +778,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -781,10 +798,37 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
+    <hyperlink ref="B4" r:id="rId1" location="CLUST629"/>
+    <hyperlink ref="B3" r:id="rId2" location="COHDG5163"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -796,7 +840,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/m_Definitions_Servers.xlsx
+++ b/Definitions/m_Definitions_Servers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="964" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="964" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="WildFly" sheetId="6" r:id="rId6"/>
     <sheet name="GlassFish" sheetId="7" r:id="rId7"/>
     <sheet name="Jetty" sheetId="8" r:id="rId8"/>
+    <sheet name="Nginx" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>Topics</t>
   </si>
@@ -232,6 +233,21 @@
   </si>
   <si>
     <t>https://docs.oracle.com/cd/E18686_01/coh.37/e18677/cluster_overview.htm#COHDG5163</t>
+  </si>
+  <si>
+    <t>Nginx</t>
+  </si>
+  <si>
+    <t>Apache Server</t>
+  </si>
+  <si>
+    <t>Workspaces</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Definitions</t>
   </si>
 </sst>
 </file>
@@ -705,11 +721,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -761,6 +777,16 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
@@ -771,6 +797,7 @@
     <hyperlink ref="A7" location="GlassFish!A1" display="GlassFish"/>
     <hyperlink ref="A8" location="Jetty!A1" display="Jetty"/>
     <hyperlink ref="A2" location="Materials!A1" display="Materials"/>
+    <hyperlink ref="A9" location="Nginx!A1" display="Nginx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -780,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1343,4 +1370,66 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="72.7109375" customWidth="1"/>
+    <col min="2" max="2" width="114.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A9" display="Topics"/>
+    <hyperlink ref="B1" location="Nginx!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/m_Definitions_Servers.xlsx
+++ b/Definitions/m_Definitions_Servers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="964" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="964" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="GlassFish" sheetId="7" r:id="rId7"/>
     <sheet name="Jetty" sheetId="8" r:id="rId8"/>
     <sheet name="Nginx" sheetId="9" r:id="rId9"/>
+    <sheet name="Apache" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>Topics</t>
   </si>
@@ -248,6 +249,12 @@
   </si>
   <si>
     <t>Definitions</t>
+  </si>
+  <si>
+    <t>Pluralsight</t>
+  </si>
+  <si>
+    <t>Installing and Configuring Apache Web Server</t>
   </si>
 </sst>
 </file>
@@ -393,7 +400,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -425,6 +432,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -783,7 +793,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -798,8 +808,81 @@
     <hyperlink ref="A8" location="Jetty!A1" display="Jetty"/>
     <hyperlink ref="A2" location="Materials!A1" display="Materials"/>
     <hyperlink ref="A9" location="Nginx!A1" display="Nginx"/>
+    <hyperlink ref="A10" location="Apache!A1" display="Apache Server"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="64.140625" customWidth="1"/>
+    <col min="2" max="2" width="121.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Apache!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A10" display="Topics"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="Installing and Configuring Apache Web Server" display="https://app.pluralsight.com/library/courses/apache-web-server-install-config"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1376,9 +1459,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
